--- a/src/main/java/io/stage/hudinielevate/cms/testdata/TestData.xlsx
+++ b/src/main/java/io/stage/hudinielevate/cms/testdata/TestData.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
   <si>
     <t>GroupName</t>
   </si>
@@ -548,10 +548,16 @@
     <t>input text</t>
   </si>
   <si>
-    <t>page test 1</t>
+    <t>update inpute text</t>
+  </si>
+  <si>
+    <t>page test 2</t>
   </si>
   <si>
     <t>testcomponent</t>
+  </si>
+  <si>
+    <t>testcomponent1</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2433,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2452,13 +2458,15 @@
       <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2467,9 +2475,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>

--- a/src/main/java/io/stage/hudinielevate/cms/testdata/TestData.xlsx
+++ b/src/main/java/io/stage/hudinielevate/cms/testdata/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Group" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>GroupName</t>
   </si>
@@ -551,13 +551,16 @@
     <t>update inpute text</t>
   </si>
   <si>
-    <t>page test 2</t>
+    <t>page test 3</t>
   </si>
   <si>
     <t>testcomponent</t>
   </si>
   <si>
     <t>testcomponent1</t>
+  </si>
+  <si>
+    <t>SIRO Dubai</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2436,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2484,7 +2487,9 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
